--- a/src/assets/public/Bulk_Customer.xlsx
+++ b/src/assets/public/Bulk_Customer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BMS_Project\bms\src\assets\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A98349-4EF7-4CB9-91B2-286C09953CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0C207-D276-4383-8F78-5D1874D5828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="720">
   <si>
     <t>Login id*</t>
   </si>
@@ -2182,6 +2182,9 @@
   </si>
   <si>
     <t>Public IP</t>
+  </si>
+  <si>
+    <t>Pincode</t>
   </si>
 </sst>
 </file>
@@ -2569,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2587,36 +2590,37 @@
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" customWidth="1"/>
-    <col min="24" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" style="7" customWidth="1"/>
-    <col min="35" max="36" width="11.85546875" style="7" customWidth="1"/>
-    <col min="37" max="37" width="16" style="7" customWidth="1"/>
-    <col min="38" max="38" width="11" style="8" customWidth="1"/>
-    <col min="39" max="40" width="15" customWidth="1"/>
-    <col min="41" max="41" width="16.42578125" style="6" customWidth="1"/>
-    <col min="42" max="42" width="16.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" customWidth="1"/>
+    <col min="25" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+    <col min="32" max="32" width="20.85546875" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" style="7" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" style="7" customWidth="1"/>
+    <col min="36" max="37" width="11.85546875" style="7" customWidth="1"/>
+    <col min="38" max="38" width="16" style="7" customWidth="1"/>
+    <col min="39" max="39" width="11" style="8" customWidth="1"/>
+    <col min="40" max="41" width="15" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" style="6" customWidth="1"/>
+    <col min="43" max="43" width="16.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2651,109 +2655,112 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>719</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>717</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>718</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="J2" s="4"/>
-      <c r="M2" s="9"/>
-      <c r="Z2">
-        <v>0</v>
-      </c>
+      <c r="N2" s="9"/>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0</v>
       </c>
     </row>
@@ -2762,7 +2769,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>State</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"NAS Pool or DHCP,IP Pool,Static IP"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -2771,28 +2778,28 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Rural,Urban"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Aadhaar Card,Ration Card,Pan Card"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Wired(RPY),Wireless,Fibre"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Regular,Mac"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Disconnected,Active,Suspend,Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"SME,Broadband,Corporate,Education or Institution"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"prepaid,postpaid,demo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN1048576" xr:uid="{9A35B006-A65E-4D4F-9C20-404851654E2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO1048576" xr:uid="{9A35B006-A65E-4D4F-9C20-404851654E2E}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH1:AH1048576" xr:uid="{E5BA766F-1859-4026-9BE7-58214CEB10B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576" xr:uid="{E5BA766F-1859-4026-9BE7-58214CEB10B0}">
       <formula1>"StaticIP,PublicIP"</formula1>
     </dataValidation>
   </dataValidations>
